--- a/Ej7/eleccion-integrados.xlsx
+++ b/Ej7/eleccion-integrados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>CD4013</t>
   </si>
@@ -90,9 +90,6 @@
     <t>2 (x4 &gt; 6)</t>
   </si>
   <si>
-    <t>CD4511 o 74LS47</t>
-  </si>
-  <si>
     <t>ffd</t>
   </si>
   <si>
@@ -123,10 +120,91 @@
     <t>zocalos</t>
   </si>
   <si>
-    <t>lcd7seg?</t>
-  </si>
-  <si>
     <t>pines hembra</t>
+  </si>
+  <si>
+    <t>lcd7seg</t>
+  </si>
+  <si>
+    <t>pines macho</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>CID74LS86 M3C6</t>
+  </si>
+  <si>
+    <t>CID74LS74 M3C6</t>
+  </si>
+  <si>
+    <t>CID74LS47 M3C6</t>
+  </si>
+  <si>
+    <t>CID74LS08 M3C4</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>CID74LS32 M3C5</t>
+  </si>
+  <si>
+    <t>jumper</t>
+  </si>
+  <si>
+    <t>CONJM</t>
+  </si>
+  <si>
+    <t>CONPINR1X40</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Open collector?</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>74LS32</t>
+  </si>
+  <si>
+    <t>CID74LS04 M3C4</t>
+  </si>
+  <si>
+    <t>74LS04</t>
+  </si>
+  <si>
+    <t>1 (x4 &gt; 1)</t>
+  </si>
+  <si>
+    <t>DIP 16</t>
+  </si>
+  <si>
+    <t>DIP 14</t>
+  </si>
+  <si>
+    <t>ZOCDIP14</t>
+  </si>
+  <si>
+    <t>ZOCDIP16</t>
+  </si>
+  <si>
+    <t>CONPINH</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>placa 10x10</t>
+  </si>
+  <si>
+    <t>NO STOCK</t>
   </si>
 </sst>
 </file>
@@ -177,9 +255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,22 +652,31 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -596,10 +684,19 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -607,58 +704,206 @@
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D20" s="1">
         <v>10</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ej7/eleccion-integrados.xlsx
+++ b/Ej7/eleccion-integrados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>CD4013</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>NO STOCK</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>270 ohm</t>
+  </si>
+  <si>
+    <t>RSMD270RA1</t>
+  </si>
+  <si>
+    <t>bornera</t>
   </si>
 </sst>
 </file>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,6 +912,44 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
